--- a/data/TEXT/ColliInfo/Cylinder.xlsx
+++ b/data/TEXT/ColliInfo/Cylinder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,29 +413,29 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -472,7 +472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -483,13 +483,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -515,13 +515,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -547,13 +547,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -579,13 +579,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -600,19 +600,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -622,7 +622,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -632,7 +632,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -642,7 +642,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
